--- a/meta/program/BlancoValueObjectClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectClassStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8181CA-09A3-AA43-A64E-D187E76B15A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72556A4-F000-2F4A-B879-E6DEE59A71A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -365,7 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -872,35 +874,35 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,14 +1310,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1510,24 +1512,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="50"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="50"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1569,30 +1571,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1690,7 +1692,10 @@
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="38"/>
+      <c r="A32" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B32" s="39" t="s">
         <v>71</v>
       </c>
@@ -1708,8 +1713,8 @@
     </row>
     <row r="33" spans="1:7" ht="15">
       <c r="A33" s="38">
-        <f>A31+1</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>40</v>
@@ -1729,7 +1734,7 @@
     <row r="34" spans="1:7" ht="15">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>43</v>
@@ -1749,7 +1754,7 @@
     <row r="35" spans="1:7" ht="15">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>47</v>
@@ -1769,7 +1774,7 @@
     <row r="36" spans="1:7" ht="15">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>50</v>
@@ -1789,7 +1794,7 @@
     <row r="37" spans="1:7" ht="15">
       <c r="A37" s="38">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="39" t="s">
         <v>52</v>
@@ -1809,7 +1814,7 @@
     <row r="38" spans="1:7" ht="15">
       <c r="A38" s="38">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>53</v>
@@ -1827,7 +1832,7 @@
     <row r="39" spans="1:7" ht="45" customHeight="1">
       <c r="A39" s="38">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>55</v>
@@ -1841,13 +1846,13 @@
       <c r="E39" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="51"/>
+      <c r="F39" s="49"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="45">
       <c r="A40" s="38">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>57</v>
@@ -1861,13 +1866,13 @@
       <c r="E40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="49"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
       <c r="A41" s="38">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>66</v>
@@ -1879,7 +1884,7 @@
       <c r="E41" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="49"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7">
@@ -1887,8 +1892,8 @@
       <c r="B42" s="22"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7">
@@ -1896,6 +1901,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
@@ -1903,42 +1923,27 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D56">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>createToString</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>accessScope2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>isAbstract</formula1>
     </dataValidation>
   </dataValidations>
@@ -1951,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/meta/program/BlancoValueObjectClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectClassStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72556A4-F000-2F4A-B879-E6DEE59A71A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8EF72C-1C5A-EF48-93F0-57A71EA3C5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -361,6 +361,43 @@
   </si>
   <si>
     <t>デフォルト値の変形をおこなうかどうか。※なるべく変形を利用しないことを推奨したい。※プログラムAPIとして生成する際には、このフィールドを明示的に設定してください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パッケージ名の後ろに付加する文字列をしていします。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">パッケージメイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -420,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -754,11 +791,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -874,36 +926,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1314,10 +1373,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1512,24 +1571,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="50"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="52"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="50"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="52"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1571,30 +1630,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="46" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1635,7 +1694,7 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A41" si="0">A28+1</f>
+        <f t="shared" ref="A29:A43" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -1665,10 +1724,10 @@
       <c r="D30" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="48"/>
+      <c r="F30" s="50"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="15">
@@ -1685,10 +1744,10 @@
       <c r="D31" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="48"/>
+      <c r="F31" s="50"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1705,10 +1764,10 @@
       <c r="D32" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="50"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1725,10 +1784,10 @@
       <c r="D33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="48"/>
+      <c r="F33" s="50"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1745,10 +1804,10 @@
       <c r="D34" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="50"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1765,10 +1824,10 @@
       <c r="D35" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="48"/>
+      <c r="F35" s="50"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1785,10 +1844,10 @@
       <c r="D36" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="48"/>
+      <c r="F36" s="50"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1805,10 +1864,10 @@
       <c r="D37" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="48"/>
+      <c r="F37" s="50"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1823,10 +1882,10 @@
         <v>35</v>
       </c>
       <c r="D38" s="40"/>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="48"/>
+      <c r="F38" s="50"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="45" customHeight="1">
@@ -1843,10 +1902,10 @@
       <c r="D39" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="49"/>
+      <c r="F39" s="51"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="45">
@@ -1863,10 +1922,10 @@
       <c r="D40" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="49"/>
+      <c r="F40" s="51"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -1881,26 +1940,79 @@
         <v>68</v>
       </c>
       <c r="D41" s="40"/>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="49"/>
+      <c r="F41" s="51"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
+    <row r="42" spans="1:7" s="57" customFormat="1" ht="15">
+      <c r="A42" s="38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="50"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" s="57" customFormat="1" ht="15">
+      <c r="A43" s="38">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="50"/>
       <c r="G43"/>
     </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="54"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="G45"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -1909,25 +2021,10 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E41:F41"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D58" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoValueObjectClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectClassStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObject/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8EF72C-1C5A-EF48-93F0-57A71EA3C5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6DAB9-9A76-0A48-A700-75408E09E56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="460" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
-  <si>
-    <t>バリューオブジェクト定義書</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
   <si>
     <t>1.このバリューオブジェクト定義書は、blancoValueObjectが入力ファイルとして利用します。</t>
   </si>
@@ -60,9 +57,6 @@
     <t>2.定義書様式に記入された情報から、バリューオブジェクトのためのJavaソースコードが自動生成されます。</t>
   </si>
   <si>
-    <t>バリューオブジェクト定義・共通</t>
-  </si>
-  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>型</t>
-  </si>
-  <si>
-    <t>デフォルト</t>
   </si>
   <si>
     <t>インタフェース名</t>
@@ -398,6 +389,22 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">ウワガキシマス。 </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バリューオブジェクト定義書</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バリューオブジェクト定義・共通</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -405,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -426,6 +433,12 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -810,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -926,43 +939,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1375,9 +1391,7 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1392,22 +1406,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1416,7 +1430,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1425,11 +1439,11 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -1438,11 +1452,11 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1451,11 +1465,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -1464,11 +1478,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1477,7 +1491,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="31"/>
@@ -1488,11 +1502,11 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1501,11 +1515,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1514,7 +1528,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="31"/>
@@ -1533,7 +1547,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1543,7 +1557,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
@@ -1561,7 +1575,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1571,24 +1585,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="52"/>
+      <c r="A19" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="53"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="53"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1620,7 +1634,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1630,30 +1644,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>6</v>
+      <c r="D25" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>4</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1662,14 +1676,14 @@
         <v>1</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27"/>
@@ -1680,14 +1694,14 @@
         <v>2</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28"/>
@@ -1698,14 +1712,14 @@
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29"/>
@@ -1716,18 +1730,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="50"/>
+      <c r="F30" s="51"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="15">
@@ -1736,18 +1750,18 @@
         <v>5</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="51"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1756,18 +1770,18 @@
         <v>6</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="51"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1776,18 +1790,18 @@
         <v>7</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="50"/>
+        <v>38</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="51"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1796,18 +1810,18 @@
         <v>8</v>
       </c>
       <c r="B34" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="50"/>
+      <c r="F34" s="51"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1816,18 +1830,18 @@
         <v>9</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="51"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1836,18 +1850,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D36" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="50"/>
+      <c r="F36" s="51"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1856,18 +1870,18 @@
         <v>11</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="51"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1876,16 +1890,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D38" s="40"/>
-      <c r="E38" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="50"/>
+      <c r="E38" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="51"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="45" customHeight="1">
@@ -1894,18 +1908,18 @@
         <v>13</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="51"/>
+        <v>58</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="52"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="45">
@@ -1914,18 +1928,18 @@
         <v>14</v>
       </c>
       <c r="B40" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="40" t="s">
-        <v>60</v>
-      </c>
       <c r="D40" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="51"/>
+        <v>59</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="52"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -1934,52 +1948,52 @@
         <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D41" s="40"/>
-      <c r="E41" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="51"/>
+      <c r="E41" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="52"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" s="57" customFormat="1" ht="15">
+    <row r="42" spans="1:7" s="47" customFormat="1" ht="15">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="55" t="s">
-        <v>74</v>
+      <c r="B42" s="45" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="51"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" s="57" customFormat="1" ht="15">
+    <row r="43" spans="1:7" s="47" customFormat="1" ht="15">
       <c r="A43" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="55" t="s">
-        <v>76</v>
+      <c r="B43" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="51"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7">
@@ -1987,8 +2001,8 @@
       <c r="B44" s="22"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7">
@@ -1996,6 +2010,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
@@ -2006,21 +2035,6 @@
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
@@ -2071,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2082,25 +2096,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M1" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2112,19 +2126,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13">
